--- a/agrupamento_status.xlsx
+++ b/agrupamento_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiol\Documents\GitHub\painel_legislativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081BABE9-775E-4737-B35E-5816C3360301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40007DE-66BE-49EE-A6BB-BC107260EB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>status</t>
   </si>
@@ -148,6 +148,45 @@
   </si>
   <si>
     <t>4 - arquivada</t>
+  </si>
+  <si>
+    <t>Aguardando Assinatura Do Autógrafo</t>
+  </si>
+  <si>
+    <t>Aprovada A Redação Final</t>
+  </si>
+  <si>
+    <t>Parecer Pelo Manutenção Do Veto</t>
+  </si>
+  <si>
+    <t>Proposição Retirada Da Ordem Do Dia</t>
+  </si>
+  <si>
+    <t>Vai A Redação Final</t>
+  </si>
+  <si>
+    <t>Veto Distribuido Para Emissão De Parecer</t>
+  </si>
+  <si>
+    <t>Veto rejeitado</t>
+  </si>
+  <si>
+    <t>Veto mantido</t>
+  </si>
+  <si>
+    <t>Em tramitação</t>
+  </si>
+  <si>
+    <t>Rejeitada</t>
+  </si>
+  <si>
+    <t>Aprovada</t>
+  </si>
+  <si>
+    <t>novo agrupamento</t>
+  </si>
+  <si>
+    <t>Arquivada</t>
   </si>
 </sst>
 </file>
@@ -163,15 +202,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +251,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -242,17 +285,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,313 +579,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:I37"/>
+  <dimension ref="G2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F37"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="54.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="55" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="J3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E4" s="6" t="s">
+    </row>
+    <row r="4" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="J4" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E6" s="6" t="s">
+      <c r="J6" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E7" s="6" t="s">
+      <c r="J7" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="6" t="s">
+      <c r="J10" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="8" t="s">
+      <c r="J11" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E11" s="8" t="s">
+      <c r="J12" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E12" s="6" t="s">
+      <c r="J13" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E13" s="6" t="s">
+      <c r="J14" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E14" s="6" t="s">
+      <c r="J15" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E15" s="6" t="s">
+      <c r="J16" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E16" s="6" t="s">
+      <c r="J18" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E17" s="6" t="s">
+      <c r="J19" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E18" s="7" t="s">
+      <c r="J20" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E19" s="6" t="s">
+      <c r="J21" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="9" t="s">
+      <c r="J22" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="6" t="s">
+      <c r="J23" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="6" t="s">
+      <c r="J24" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E23" s="9" t="s">
+      <c r="J25" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E24" s="6" t="s">
+      <c r="J26" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E25" s="6" t="s">
+      <c r="J27" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E26" s="8" t="s">
+      <c r="J28" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E27" s="8" t="s">
+      <c r="J29" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E28" s="9" t="s">
+      <c r="J30" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E29" s="7" t="s">
+      <c r="J32" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E30" s="7" t="s">
+      <c r="J33" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="6" t="s">
+      <c r="J34" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="7" t="s">
+      <c r="J35" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="6" t="s">
+      <c r="J36" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E34" s="8" t="s">
+      <c r="J38" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E35" s="7" t="s">
+      <c r="J40" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E36" s="7" t="s">
+      <c r="J41" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I42" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E37" t="s">
+      <c r="J42" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I43" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F37" t="s">
+      <c r="J43" s="9" t="s">
         <v>35</v>
       </c>
     </row>

--- a/agrupamento_status.xlsx
+++ b/agrupamento_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiol\Documents\GitHub\painel_legislativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40007DE-66BE-49EE-A6BB-BC107260EB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63453B9-2423-48B5-AB6A-16651BA24CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>status</t>
   </si>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,10 +626,12 @@
       <c r="G5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G6" s="4" t="s">
@@ -659,10 +661,12 @@
       </c>
     </row>
     <row r="9" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="7:10" x14ac:dyDescent="0.3">
       <c r="I10" s="6" t="s">
@@ -833,10 +837,12 @@
       </c>
     </row>
     <row r="31" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I32" s="8" t="s">
@@ -879,7 +885,7 @@
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J37" s="9" t="s">
